--- a/DragPrediction/NL2VP DragX/0.5T/n/8/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.5T/n/8/test.xlsx
@@ -348,15 +348,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -372,8 +372,11 @@
       <c r="E1">
         <v>8.1675991735537194E-3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1">
+        <v>1.235294118E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>65.281745999999998</v>
       </c>
@@ -394,8 +397,16 @@
         <f>SUM(E2:E109)</f>
         <v>9.2793900148597093</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <f>A2*$G$1</f>
+        <v>0.80642156846570023</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G109)</f>
+        <v>14.034449610480424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>55.700102000000001</v>
       </c>
@@ -412,8 +423,12 @@
         <f t="shared" ref="E3:E66" si="0">A3*$E$1</f>
         <v>0.45493610706205789</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">A3*$G$1</f>
+        <v>0.68806008372600036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>50.529161999999999</v>
       </c>
@@ -430,8 +445,12 @@
         <f t="shared" si="0"/>
         <v>0.412701941791562</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.62418376606069115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>25.557081</v>
       </c>
@@ -448,8 +467,12 @@
         <f t="shared" si="0"/>
         <v>0.20873999365404547</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.31570511832549558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>25.601960999999999</v>
       </c>
@@ -466,8 +489,12 @@
         <f t="shared" si="0"/>
         <v>0.20910655550495455</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.31625951832565397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>49.816845999999998</v>
       </c>
@@ -484,8 +511,12 @@
         <f t="shared" si="0"/>
         <v>0.40688403021865288</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.61538456841111822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>26.934443000000002</v>
       </c>
@@ -502,8 +533,12 @@
         <f t="shared" si="0"/>
         <v>0.21998973438692979</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.33271959009506274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>47.392809999999997</v>
       </c>
@@ -520,8 +555,12 @@
         <f t="shared" si="0"/>
         <v>0.38708547578838842</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.58544059428491579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>30.782813999999998</v>
       </c>
@@ -538,8 +577,12 @@
         <f t="shared" si="0"/>
         <v>0.25142168618605787</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.3802582906968805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>37.447420999999999</v>
       </c>
@@ -556,8 +599,12 @@
         <f t="shared" si="0"/>
         <v>0.30585552481131817</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.4625857889556968</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>4.9008079999999996</v>
       </c>
@@ -574,8 +621,12 @@
         <f t="shared" si="0"/>
         <v>4.0027835370545453E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>6.0539392958473437E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>7.937754</v>
       </c>
@@ -592,8 +643,12 @@
         <f t="shared" si="0"/>
         <v>6.4832393010272729E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>9.8054608263309723E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>46.223381000000003</v>
       </c>
@@ -610,8 +665,12 @@
         <f t="shared" si="0"/>
         <v>0.3775340484544587</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.57099470663372964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>11.801159</v>
       </c>
@@ -628,8 +687,12 @@
         <f t="shared" si="0"/>
         <v>9.6387136495376044E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.14577902298282763</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>38.937958000000002</v>
       </c>
@@ -646,8 +709,12 @@
         <f t="shared" si="0"/>
         <v>0.31802963358066944</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.48099830484331046</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>11.483446000000001</v>
       </c>
@@ -664,8 +731,12 @@
         <f t="shared" si="0"/>
         <v>9.379218405914877E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.1418543329817063</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>22.978838</v>
       </c>
@@ -682,8 +753,12 @@
         <f t="shared" si="0"/>
         <v>0.18768193825802479</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.28385623419874884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>20.289860000000001</v>
       </c>
@@ -700,8 +775,12 @@
         <f t="shared" si="0"/>
         <v>0.16571944376752068</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.25063944713043479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>27.519708000000001</v>
       </c>
@@ -718,8 +797,12 @@
         <f t="shared" si="0"/>
         <v>0.22476994431723968</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.33994933421477547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>31.054295</v>
       </c>
@@ -736,8 +819,12 @@
         <f t="shared" si="0"/>
         <v>0.25363903417729339</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.3836118795213681</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>0.59974899999999998</v>
       </c>
@@ -754,8 +841,12 @@
         <f t="shared" si="0"/>
         <v>4.8985094367396693E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>7.4086641197638201E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>0.41681200000000002</v>
       </c>
@@ -772,8 +863,12 @@
         <f t="shared" si="0"/>
         <v>3.4043533467272729E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>5.1488541191181602E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>-0.35598099999999999</v>
       </c>
@@ -790,8 +885,12 @@
         <f t="shared" si="0"/>
         <v>-2.9075101214008263E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>-4.39741235419758E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>1.529261</v>
       </c>
@@ -808,8 +907,12 @@
         <f t="shared" si="0"/>
         <v>1.2490390879747935E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1.8890871181867979E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>-1.0692390000000001</v>
       </c>
@@ -826,8 +929,12 @@
         <f t="shared" si="0"/>
         <v>-8.7331155727314053E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>-1.320824647436202E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>2.753323</v>
       </c>
@@ -844,8 +951,12 @@
         <f t="shared" si="0"/>
         <v>2.2488038659326446E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>3.4011637068541142E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>-4.9589350000000003</v>
       </c>
@@ -862,8 +973,12 @@
         <f t="shared" si="0"/>
         <v>-4.0502593407706615E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>-6.1257432370443309E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>-3.1811280000000002</v>
       </c>
@@ -880,8 +995,12 @@
         <f t="shared" si="0"/>
         <v>-2.5982178423768598E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>-3.9296287070051041E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>0.93318100000000004</v>
       </c>
@@ -898,8 +1017,12 @@
         <f t="shared" si="0"/>
         <v>7.6218483643760333E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>1.152753000329358E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>10.555202</v>
       </c>
@@ -916,8 +1039,12 @@
         <f t="shared" si="0"/>
         <v>8.6210659131892561E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0.13038778944901835</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>9.8706960000000006</v>
       </c>
@@ -934,8 +1061,12 @@
         <f t="shared" si="0"/>
         <v>8.0619888492000011E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0.12193212709366129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>10.429681</v>
       </c>
@@ -952,8 +1083,12 @@
         <f t="shared" si="0"/>
         <v>8.5185453916028928E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0.1288372359191636</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>11.513392</v>
       </c>
@@ -970,8 +1105,12 @@
         <f t="shared" si="0"/>
         <v>9.4036770983999998E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.14222425415828255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>-2.0034360000000002</v>
       </c>
@@ -988,8 +1127,12 @@
         <f t="shared" si="0"/>
         <v>-1.6363262217867772E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>-2.4748327065894485E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>11.839306000000001</v>
       </c>
@@ -1006,8 +1149,12 @@
         <f t="shared" si="0"/>
         <v>9.6698705901049592E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0.14625025063002109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>3.1703990000000002</v>
       </c>
@@ -1024,8 +1171,12 @@
         <f t="shared" si="0"/>
         <v>2.5894548252235541E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>3.9163752364130826E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>2.8443350000000001</v>
       </c>
@@ -1042,8 +1193,12 @@
         <f t="shared" si="0"/>
         <v>2.323138819530992E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>3.5135902951215305E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>2.4318909999999998</v>
       </c>
@@ -1060,8 +1215,12 @@
         <f t="shared" si="0"/>
         <v>1.9862710921772726E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>3.0041006479171378E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>2.0255700000000001</v>
       </c>
@@ -1078,8 +1237,12 @@
         <f t="shared" si="0"/>
         <v>1.654404385797521E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>2.5021747065972603E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>0.77607099999999996</v>
       </c>
@@ -1096,8 +1259,12 @@
         <f t="shared" si="0"/>
         <v>6.3386368582190079E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>9.5867594145037788E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>-1.6265970000000001</v>
       </c>
@@ -1114,8 +1281,12 @@
         <f t="shared" si="0"/>
         <v>-1.3285392312904961E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>-2.0093257064564461E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>-5.4587190000000003</v>
       </c>
@@ -1132,8 +1303,12 @@
         <f t="shared" si="0"/>
         <v>-4.4584628793061985E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>-6.743123472514842E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>-5.6748190000000003</v>
       </c>
@@ -1150,8 +1325,12 @@
         <f t="shared" si="0"/>
         <v>-4.6349646974466946E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>-7.010070531414643E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>-5.9674569999999996</v>
       </c>
@@ -1168,8 +1347,12 @@
         <f t="shared" si="0"/>
         <v>-4.8739796861417356E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>-7.3715645315179254E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>-6.3711510000000002</v>
       </c>
@@ -1186,8 +1369,12 @@
         <f t="shared" si="0"/>
         <v>-5.2037007642185953E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>-7.8702453551898185E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>-7.2891089999999998</v>
       </c>
@@ -1204,8 +1391,12 @@
         <f t="shared" si="0"/>
         <v>-5.9534520644342975E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>-9.0041934731608625E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>-1.7771440000000001</v>
       </c>
@@ -1222,8 +1413,12 @@
         <f t="shared" si="0"/>
         <v>-1.4514999865685951E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>-2.1952955300389921E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>-7.062754</v>
       </c>
@@ -1240,8 +1435,12 @@
         <f t="shared" si="0"/>
         <v>-5.7685743733413224E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>-8.7245784730809725E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>-12.241007</v>
       </c>
@@ -1258,8 +1457,12 @@
         <f t="shared" si="0"/>
         <v>-9.9979638656665287E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>-0.15121243945496826</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>-11.815751000000001</v>
       </c>
@@ -1276,8 +1479,12 @@
         <f t="shared" si="0"/>
         <v>-9.6506318102516531E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>-0.1459592771005262</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>-11.512171</v>
       </c>
@@ -1294,8 +1501,12 @@
         <f t="shared" si="0"/>
         <v>-9.4026798345409099E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>-0.14220917121710178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>-10.220011</v>
       </c>
@@ -1312,8 +1523,12 @@
         <f t="shared" si="0"/>
         <v>-8.3472953397309924E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>-0.12624719474195298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>-8.7795089999999991</v>
       </c>
@@ -1330,8 +1545,12 @@
         <f t="shared" si="0"/>
         <v>-7.170751045260744E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>-0.10845275826628061</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>-1.5060500000000001</v>
       </c>
@@ -1348,8 +1567,12 @@
         <f t="shared" si="0"/>
         <v>-1.2300812735330581E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>-1.8604147064139001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>0.42305100000000001</v>
       </c>
@@ -1366,8 +1589,12 @@
         <f t="shared" si="0"/>
         <v>3.4553109979710748E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>5.2259241191401802E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>0.83202200000000004</v>
       </c>
@@ -1384,8 +1611,12 @@
         <f t="shared" si="0"/>
         <v>6.7956221995785129E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>1.027791882646596E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>2.2427090000000001</v>
       </c>
@@ -1402,8 +1633,12 @@
         <f t="shared" si="0"/>
         <v>1.831754817492149E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>2.7704052360856622E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>2.1981269999999999</v>
       </c>
@@ -1420,8 +1655,12 @@
         <f t="shared" si="0"/>
         <v>1.7953420268566115E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>2.7153333537169859E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>1.6238699999999999</v>
       </c>
@@ -1438,8 +1677,12 @@
         <f t="shared" si="0"/>
         <v>1.3263119269958677E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>2.00595705939666E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>2.1471840000000002</v>
       </c>
@@ -1456,8 +1699,12 @@
         <f t="shared" si="0"/>
         <v>1.7537338263867771E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>2.6524037654637123E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>7.4181629999999998</v>
       </c>
@@ -1474,8 +1721,12 @@
         <f t="shared" si="0"/>
         <v>6.0588581988086782E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>9.1636131202652335E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>3.3572470000000001</v>
       </c>
@@ -1492,8 +1743,12 @@
         <f t="shared" si="0"/>
         <v>2.7420647822615704E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>4.1471874717731463E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>8.3183009999999999</v>
       </c>
@@ -1510,8 +1765,12 @@
         <f t="shared" si="0"/>
         <v>6.7940548372971074E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>0.10275548297053518</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>8.7820319999999992</v>
       </c>
@@ -1528,8 +1787,12 @@
         <f t="shared" si="0"/>
         <v>7.1728117305322317E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>0.10848392473687775</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>8.8214140000000008</v>
       </c>
@@ -1546,8 +1809,12 @@
         <f t="shared" si="0"/>
         <v>7.2049773695975219E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>0.10897040826642854</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>9.0981260000000006</v>
       </c>
@@ -1561,11 +1828,15 @@
         <v>1.139602</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E109" si="1">A67*$E$1</f>
+        <f t="shared" ref="E67:E109" si="2">A67*$E$1</f>
         <v>7.4309846398487617E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="G67">
+        <f t="shared" ref="G67:G109" si="3">A67*$G$1</f>
+        <v>0.11238861532622869</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>9.1019480000000001</v>
       </c>
@@ -1579,11 +1850,15 @@
         <v>0.99919800000000003</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4341062962528931E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="G68">
+        <f t="shared" si="3"/>
+        <v>0.11243582826741864</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>6.567825</v>
       </c>
@@ -1597,11 +1872,15 @@
         <v>0.86029800000000001</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3643362042045457E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>8.1131955905533501E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>9.1682760000000005</v>
       </c>
@@ -1615,11 +1894,15 @@
         <v>1.1389590000000001</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4882803480512405E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>0.11325517415000569</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>9.1783199999999994</v>
       </c>
@@ -1633,11 +1916,15 @@
         <v>1.1427229999999999</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4964838846611564E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>0.11337924709121759</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>9.6644600000000001</v>
       </c>
@@ -1651,11 +1938,15 @@
         <v>0.99877300000000002</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.893543550884298E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>0.1193845059164628</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>7.4309539999999998</v>
       </c>
@@ -1669,11 +1960,15 @@
         <v>0.85946800000000001</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0693053749115704E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>9.1794137673285717E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>10.023678</v>
       </c>
@@ -1687,11 +1982,15 @@
         <v>1.003952</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.1869384148768598E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>0.12382190474126005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>10.213020999999999</v>
       </c>
@@ -1705,11 +2004,15 @@
         <v>1.0022610000000001</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.341586187908677E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>0.12616084768310479</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>7.6139789999999996</v>
       </c>
@@ -1723,11 +2026,15 @@
         <v>0.86109500000000005</v>
       </c>
       <c r="E76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2187928587855372E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="G76">
+        <f t="shared" si="3"/>
+        <v>9.4055034732755213E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>10.22237</v>
       </c>
@@ -1741,11 +2048,15 @@
         <v>1.0019800000000001</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3492220763760339E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="G77">
+        <f t="shared" si="3"/>
+        <v>0.12627633533019661</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>7.86965</v>
       </c>
@@ -1759,11 +2070,15 @@
         <v>0.86128300000000002</v>
       </c>
       <c r="E78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4276146836157025E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="G78">
+        <f t="shared" si="3"/>
+        <v>9.7213323557187009E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>13.218127000000001</v>
       </c>
@@ -1777,11 +2092,15 @@
         <v>0.71979000000000004</v>
       </c>
       <c r="E79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10796036316112811</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="G79">
+        <f t="shared" si="3"/>
+        <v>0.16328274534076986</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>6.3513760000000001</v>
       </c>
@@ -1795,11 +2114,15 @@
         <v>0.86048000000000002</v>
       </c>
       <c r="E80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1875493368528931E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="G80">
+        <f t="shared" si="3"/>
+        <v>7.8458174140063688E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>8.9071789999999993</v>
       </c>
@@ -1813,11 +2136,15 @@
         <v>0.86247300000000005</v>
       </c>
       <c r="E81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.2750267839095037E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="G81">
+        <f t="shared" si="3"/>
+        <v>0.11002985826673121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>8.7601659999999999</v>
       </c>
@@ -1831,11 +2158,15 @@
         <v>0.86252099999999998</v>
       </c>
       <c r="E82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1549524581793394E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="G82">
+        <f t="shared" si="3"/>
+        <v>0.10821381532503588</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>10.342969999999999</v>
       </c>
@@ -1849,11 +2180,15 @@
         <v>0.72212399999999999</v>
       </c>
       <c r="E83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.4477233224090911E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="G83">
+        <f t="shared" si="3"/>
+        <v>0.1277661000365046</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>9.9998880000000003</v>
       </c>
@@ -1867,11 +2202,15 @@
         <v>0.72089199999999998</v>
       </c>
       <c r="E84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.1675076964429758E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="G84">
+        <f t="shared" si="3"/>
+        <v>0.12352802827058784</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>10.577261</v>
       </c>
@@ -1885,11 +2224,15 @@
         <v>0.72282800000000003</v>
       </c>
       <c r="E85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.6390828202061981E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="G85">
+        <f t="shared" si="3"/>
+        <v>0.13066028297850799</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>19.615200000000002</v>
       </c>
@@ -1903,11 +2246,15 @@
         <v>0.58476399999999995</v>
       </c>
       <c r="E86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16020909130909092</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="G86">
+        <f t="shared" si="3"/>
+        <v>0.24230541183393603</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>10.554395</v>
       </c>
@@ -1921,11 +2268,15 @@
         <v>0.72828999999999999</v>
       </c>
       <c r="E87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.6204067879359497E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="G87">
+        <f t="shared" si="3"/>
+        <v>0.13037782062548608</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>10.153843</v>
       </c>
@@ -1939,11 +2290,15 @@
         <v>0.72923099999999996</v>
       </c>
       <c r="E88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.2932519695194218E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="G88">
+        <f t="shared" si="3"/>
+        <v>0.12542982532995475</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>11.994085999999999</v>
       </c>
@@ -1957,11 +2312,15 @@
         <v>0.58810899999999999</v>
       </c>
       <c r="E89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7962886901132223E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="G89">
+        <f t="shared" si="3"/>
+        <v>0.14816223886586147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>9.9601640000000007</v>
       </c>
@@ -1975,11 +2334,15 @@
         <v>0.73460999999999999</v>
       </c>
       <c r="E90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.1350627254859517E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="G90">
+        <f t="shared" si="3"/>
+        <v>0.12303732003515352</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>14.074942999999999</v>
       </c>
@@ -1993,11 +2356,15 @@
         <v>0.44776899999999997</v>
       </c>
       <c r="E91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1149584928146157</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="G91">
+        <f t="shared" si="3"/>
+        <v>0.17386694299085273</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>12.706353999999999</v>
       </c>
@@ -2011,11 +2378,15 @@
         <v>0.30994500000000003</v>
       </c>
       <c r="E92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10378040642928099</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="G92">
+        <f t="shared" si="3"/>
+        <v>0.15696084357425771</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>13.632469</v>
       </c>
@@ -2029,11 +2400,15 @@
         <v>0.58511500000000005</v>
       </c>
       <c r="E93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1113445425378967</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="G93">
+        <f t="shared" si="3"/>
+        <v>0.16840108769517342</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>12.981762</v>
       </c>
@@ -2047,11 +2422,15 @@
         <v>0.58782999999999996</v>
       </c>
       <c r="E94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10602982858247108</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="G94">
+        <f t="shared" si="3"/>
+        <v>0.16036294239875917</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>12.300953</v>
       </c>
@@ -2065,11 +2444,15 @@
         <v>0.583924</v>
       </c>
       <c r="E95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10046925355672315</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="G95">
+        <f t="shared" si="3"/>
+        <v>0.15195294886694455</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>14.293725</v>
       </c>
@@ -2083,11 +2466,15 @@
         <v>0.44815300000000002</v>
       </c>
       <c r="E96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11674541649700414</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="G96">
+        <f t="shared" si="3"/>
+        <v>0.1765695441680955</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>11.478192999999999</v>
       </c>
@@ -2101,11 +2488,15 @@
         <v>0.58432600000000001</v>
       </c>
       <c r="E97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.3749279660690077E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="G97">
+        <f t="shared" si="3"/>
+        <v>0.14178944298168775</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>14.236136</v>
       </c>
@@ -2119,11 +2510,15 @@
         <v>0.30630499999999999</v>
       </c>
       <c r="E98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11627505262819836</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="G98">
+        <f t="shared" si="3"/>
+        <v>0.17585815063848048</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>10.999463</v>
       </c>
@@ -2137,11 +2532,15 @@
         <v>0.58418099999999995</v>
       </c>
       <c r="E99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9839204908334719E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="G99">
+        <f t="shared" si="3"/>
+        <v>0.13587571945058635</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>14.61294</v>
       </c>
@@ -2155,11 +2554,15 @@
         <v>0.44797700000000001</v>
       </c>
       <c r="E100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11935263666719009</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="G100">
+        <f t="shared" si="3"/>
+        <v>0.1805127882868692</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>14.355560000000001</v>
       </c>
@@ -2173,11 +2576,15 @@
         <v>0.306365</v>
       </c>
       <c r="E101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11725045999190084</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="G101">
+        <f t="shared" si="3"/>
+        <v>0.17733338828596082</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>14.131281</v>
       </c>
@@ -2191,11 +2598,15 @@
         <v>0.30534299999999998</v>
       </c>
       <c r="E102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11541863901685537</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="G102">
+        <f t="shared" si="3"/>
+        <v>0.17456288299105158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>14.113243000000001</v>
       </c>
@@ -2209,11 +2620,15 @@
         <v>0.30798799999999998</v>
       </c>
       <c r="E103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11527131186296281</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="G103">
+        <f t="shared" si="3"/>
+        <v>0.17434006063804675</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>13.904014999999999</v>
       </c>
@@ -2227,11 +2642,15 @@
         <v>0.30798500000000001</v>
       </c>
       <c r="E104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11356242142307851</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="G104">
+        <f t="shared" si="3"/>
+        <v>0.17175547946083769</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>14.207077</v>
       </c>
@@ -2245,11 +2664,15 @@
         <v>0.44649699999999998</v>
       </c>
       <c r="E105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11603771036381405</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="G105">
+        <f t="shared" si="3"/>
+        <v>0.17549918652073088</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>14.111423</v>
       </c>
@@ -2263,11 +2686,15 @@
         <v>0.31016700000000003</v>
       </c>
       <c r="E106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11525644683246695</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="G106">
+        <f t="shared" si="3"/>
+        <v>0.17431757828509914</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>13.129752</v>
       </c>
@@ -2281,11 +2708,15 @@
         <v>0.44395699999999999</v>
       </c>
       <c r="E107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10723855158416529</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="G107">
+        <f t="shared" si="3"/>
+        <v>0.16219105416398735</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>12.037312999999999</v>
       </c>
@@ -2299,11 +2730,15 @@
         <v>0.44266499999999998</v>
       </c>
       <c r="E108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8315947710607435E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="G108">
+        <f t="shared" si="3"/>
+        <v>0.14869621945424932</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>11.074633</v>
       </c>
@@ -2317,8 +2752,12 @@
         <v>0.44207800000000003</v>
       </c>
       <c r="E109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.0453163338210754E-2</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="3"/>
+        <v>0.13680429003908695</v>
       </c>
     </row>
   </sheetData>
@@ -2326,5 +2765,6 @@
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>